--- a/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
+++ b/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranbr\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranbr\Documents\progra3\Rachel Barrios 9959-18-649\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>Nombre de actividad</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Diagrama cero</t>
   </si>
   <si>
-    <t>Diagrama de flujo</t>
-  </si>
-  <si>
     <t>Conectar y subir el programa a github</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Modificar programa</t>
   </si>
   <si>
-    <t>Utilizacion de archivos en la planilla</t>
-  </si>
-  <si>
     <t>Cambiar el diseño de la planilla</t>
   </si>
   <si>
@@ -87,6 +81,162 @@
   </si>
   <si>
     <t>Rachel Barrios</t>
+  </si>
+  <si>
+    <t>Diagrama login</t>
+  </si>
+  <si>
+    <t>Diagrama de mantenimiento</t>
+  </si>
+  <si>
+    <t>Diagrama nomina</t>
+  </si>
+  <si>
+    <t>Reportes Nomina</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Inicio de sesion</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Altas Empleados</t>
+  </si>
+  <si>
+    <t>Bajas Empleados</t>
+  </si>
+  <si>
+    <t>Cambio Empleados</t>
+  </si>
+  <si>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Descuentos</t>
+  </si>
+  <si>
+    <t>Planilla de nomina</t>
+  </si>
+  <si>
+    <t>Informe de planilla</t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>Informes estadisticos</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Diagrama de flijo</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>6.2.2</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>6.3.2</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>7.2.2</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>7.3.2</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>8.2.2</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>9.1.2</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>9.3.1</t>
+  </si>
+  <si>
+    <t>9.3.2</t>
+  </si>
+  <si>
+    <t>Archivos Empleados</t>
+  </si>
+  <si>
+    <t>Daniel Garcia</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -94,7 +244,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +271,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEF7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98394"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -175,7 +349,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -190,6 +364,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,10 +393,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF98394"/>
+      <color rgb="FFDEF7FA"/>
+      <color rgb="FFE9E41C"/>
       <color rgb="FFBCF6A8"/>
-      <color rgb="FFDEF7FA"/>
       <color rgb="FFFDCDF6"/>
-      <color rgb="FFE9E41C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -305,9 +501,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$2:$B$10</c:f>
+              <c:f>Hoja1!$B$2:$B$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>Diagrama de contexto</c:v>
                 </c:pt>
@@ -315,24 +511,165 @@
                   <c:v>Diagrama cero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diagrama de flujo</c:v>
+                  <c:v>Añadir colaboradores a github</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Añadir colaboradores a github</c:v>
+                  <c:v>Conectar y subir el programa a github</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Conectar y subir el programa a github</c:v>
+                  <c:v>Diagrama login</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Inicio de sesion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Registro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Menu</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Altas Empleados</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Bajas Empleados</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Cambio Empleados</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Diagrama nomina</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Archivos Empleados</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Descuentos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Planilla de nomina</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Informe de planilla</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Formas de pago</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Reportes Nomina</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Revision</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Impresión</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Informes estadisticos</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>Modificar programa</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Utilizacion de archivos en la planilla</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="54">
                   <c:v>Cambiar el diseño de la planilla</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="55">
                   <c:v>Subir el programa final a github</c:v>
                 </c:pt>
               </c:strCache>
@@ -340,10 +677,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$10</c:f>
+              <c:f>Hoja1!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43866</c:v>
                 </c:pt>
@@ -351,16 +688,166 @@
                   <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43869</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43866</c:v>
+                <c:pt idx="5">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43886</c:v>
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,9 +868,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$2:$B$10</c:f>
+              <c:f>Hoja1!$B$2:$B$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>Diagrama de contexto</c:v>
                 </c:pt>
@@ -391,24 +878,165 @@
                   <c:v>Diagrama cero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diagrama de flujo</c:v>
+                  <c:v>Añadir colaboradores a github</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Añadir colaboradores a github</c:v>
+                  <c:v>Conectar y subir el programa a github</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Conectar y subir el programa a github</c:v>
+                  <c:v>Diagrama login</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Inicio de sesion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Registro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Menu</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Altas Empleados</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Bajas Empleados</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Cambio Empleados</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Diagrama nomina</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Archivos Empleados</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Descuentos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Planilla de nomina</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Informe de planilla</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Formas de pago</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Reportes Nomina</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Revision</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Impresión</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Informes estadisticos</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Diagrama de flijo</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Codigo</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>Modificar programa</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Utilizacion de archivos en la planilla</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="54">
                   <c:v>Cambiar el diseño de la planilla</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="55">
                   <c:v>Subir el programa final a github</c:v>
                 </c:pt>
               </c:strCache>
@@ -416,10 +1044,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$10</c:f>
+              <c:f>Hoja1!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -427,7 +1055,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -435,7 +1063,157 @@
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -452,11 +1230,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1620921648"/>
-        <c:axId val="1620934160"/>
+        <c:axId val="1832153728"/>
+        <c:axId val="1832155904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1620921648"/>
+        <c:axId val="1832153728"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -499,7 +1277,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620934160"/>
+        <c:crossAx val="1832155904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -507,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1620934160"/>
+        <c:axId val="1832155904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43886"/>
@@ -574,7 +1352,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620921648"/>
+        <c:crossAx val="1832153728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1958,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1466,22 +2244,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="14"/>
     <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
+      <c r="A1" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1496,14 +2275,14 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1520,14 +2299,14 @@
         <v>43867</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1540,168 +2319,1322 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E10" si="0">C3+D3</f>
+        <f t="shared" ref="E3:E57" si="0">C3+D3</f>
         <v>43868</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43867</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C4+D4</f>
+        <v>43868</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43866</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>43867</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C6" s="4">
+        <v>43869</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>43879</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>43879</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>43879</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
         <v>43869</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>43875</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>43871</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43874</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
-        <v>43867</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <f>C5+D5</f>
-        <v>43868</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43869</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43875</v>
+      </c>
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>43875</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D32" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>43866</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>43867</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>43877</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>43875</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>43877</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>43878</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43878</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>43877</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43877</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
+      <c r="B45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43869</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43878</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43876</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43870</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43878</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>10</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43873</v>
+      </c>
+      <c r="D55" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>12</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43879</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>13</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
+      <c r="C57" s="4">
+        <v>43881</v>
+      </c>
+      <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4">
-        <v>43886</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>43886</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D59" s="6">
         <f>C2</f>
         <v>43866</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6">
-        <f>C10</f>
-        <v>43886</v>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="6">
+        <f>C57</f>
+        <v>43881</v>
       </c>
     </row>
   </sheetData>

--- a/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
+++ b/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
@@ -137,9 +137,6 @@
     <t>6.1.1</t>
   </si>
   <si>
-    <t>Diagrama de flijo</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Revision</t>
+  </si>
+  <si>
+    <t>Diagrama de flujo</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
                   <c:v>Inicio de sesion</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Codigo</c:v>
@@ -532,7 +532,7 @@
                   <c:v>Registro</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Codigo</c:v>
@@ -541,7 +541,7 @@
                   <c:v>Menu</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Codigo</c:v>
@@ -553,7 +553,7 @@
                   <c:v>Altas Empleados</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Codigo</c:v>
@@ -562,7 +562,7 @@
                   <c:v>Bajas Empleados</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Codigo</c:v>
@@ -571,7 +571,7 @@
                   <c:v>Cambio Empleados</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Codigo</c:v>
@@ -583,7 +583,7 @@
                   <c:v>Archivos Empleados</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Codigo</c:v>
@@ -592,7 +592,7 @@
                   <c:v>Sueldos</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Codigo</c:v>
@@ -601,7 +601,7 @@
                   <c:v>Descuentos</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Codigo</c:v>
@@ -610,7 +610,7 @@
                   <c:v>Planilla de nomina</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Codigo</c:v>
@@ -619,7 +619,7 @@
                   <c:v>Informe de planilla</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>Codigo</c:v>
@@ -628,7 +628,7 @@
                   <c:v>Formas de pago</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>Codigo</c:v>
@@ -640,7 +640,7 @@
                   <c:v>Revision</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>Codigo</c:v>
@@ -649,7 +649,7 @@
                   <c:v>Impresión</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Codigo</c:v>
@@ -658,7 +658,7 @@
                   <c:v>Informes estadisticos</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>Codigo</c:v>
@@ -890,7 +890,7 @@
                   <c:v>Inicio de sesion</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Codigo</c:v>
@@ -899,7 +899,7 @@
                   <c:v>Registro</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Codigo</c:v>
@@ -908,7 +908,7 @@
                   <c:v>Menu</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Codigo</c:v>
@@ -920,7 +920,7 @@
                   <c:v>Altas Empleados</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Codigo</c:v>
@@ -929,7 +929,7 @@
                   <c:v>Bajas Empleados</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Codigo</c:v>
@@ -938,7 +938,7 @@
                   <c:v>Cambio Empleados</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Codigo</c:v>
@@ -950,7 +950,7 @@
                   <c:v>Archivos Empleados</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Codigo</c:v>
@@ -959,7 +959,7 @@
                   <c:v>Sueldos</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Codigo</c:v>
@@ -968,7 +968,7 @@
                   <c:v>Descuentos</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Codigo</c:v>
@@ -977,7 +977,7 @@
                   <c:v>Planilla de nomina</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Codigo</c:v>
@@ -986,7 +986,7 @@
                   <c:v>Informe de planilla</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>Codigo</c:v>
@@ -995,7 +995,7 @@
                   <c:v>Formas de pago</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>Codigo</c:v>
@@ -1007,7 +1007,7 @@
                   <c:v>Revision</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>Codigo</c:v>
@@ -1016,7 +1016,7 @@
                   <c:v>Impresión</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Codigo</c:v>
@@ -1025,7 +1025,7 @@
                   <c:v>Informes estadisticos</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>Diagrama de flijo</c:v>
+                  <c:v>Diagrama de flujo</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>Codigo</c:v>
@@ -1067,7 +1067,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -1076,7 +1076,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -1085,7 +1085,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -1097,7 +1097,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
@@ -1106,7 +1106,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4</c:v>
@@ -1115,7 +1115,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4</c:v>
@@ -1127,7 +1127,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5</c:v>
@@ -1136,7 +1136,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7</c:v>
@@ -1145,7 +1145,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7</c:v>
@@ -1154,7 +1154,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4</c:v>
@@ -1163,7 +1163,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3</c:v>
@@ -1172,7 +1172,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3</c:v>
@@ -1184,7 +1184,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3</c:v>
@@ -1193,7 +1193,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>4</c:v>
@@ -1202,7 +1202,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3</c:v>
@@ -1230,11 +1230,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1832153728"/>
-        <c:axId val="1832155904"/>
+        <c:axId val="-749731616"/>
+        <c:axId val="-749731072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1832153728"/>
+        <c:axId val="-749731616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832155904"/>
+        <c:crossAx val="-749731072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832155904"/>
+        <c:axId val="-749731072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43886"/>
@@ -1352,7 +1352,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832153728"/>
+        <c:crossAx val="-749731616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,17 +2430,17 @@
         <v>36</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>43873</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>43876</v>
@@ -2499,20 +2499,20 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
         <v>43873</v>
       </c>
       <c r="D11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>16</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>43876</v>
@@ -2571,20 +2571,20 @@
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>43873</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>16</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>43876</v>
@@ -2635,7 +2635,7 @@
         <v>43870</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -2667,20 +2667,20 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <v>43873</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>18</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <v>43876</v>
@@ -2739,20 +2739,20 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4">
         <v>43874</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
         <v>43876</v>
@@ -2803,7 +2803,7 @@
         <v>43871</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="11">
         <v>1</v>
@@ -2811,23 +2811,23 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
         <v>43873</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
         <v>43876</v>
@@ -2851,7 +2851,7 @@
         <v>43880</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>8.1</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4">
         <v>43870</v>
@@ -2907,20 +2907,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4">
         <v>43873</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>17</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4">
         <v>43875</v>
@@ -2979,20 +2979,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4">
         <v>43873</v>
       </c>
       <c r="D31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>17</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4">
         <v>43870</v>
@@ -3051,20 +3051,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4">
         <v>43873</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>17</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4">
         <v>43870</v>
@@ -3123,20 +3123,20 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4">
         <v>43873</v>
       </c>
       <c r="D37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>43878</v>
+        <v>43874</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>17</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
         <v>43876</v>
@@ -3195,20 +3195,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4">
         <v>43873</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>17</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4">
         <v>43878</v>
@@ -3267,20 +3267,20 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C43" s="4">
         <v>43873</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="0"/>
-        <v>43877</v>
+        <v>43874</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>17</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4">
         <v>43877</v>
@@ -3331,7 +3331,7 @@
         <v>43870</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="11">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>9.1</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="4">
         <v>43870</v>
@@ -3355,7 +3355,7 @@
         <v>43871</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="11">
         <v>1</v>
@@ -3363,23 +3363,23 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4">
         <v>43873</v>
       </c>
       <c r="D47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="4">
         <v>43878</v>
@@ -3403,7 +3403,7 @@
         <v>43881</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -3435,20 +3435,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C50" s="4">
         <v>43873</v>
       </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="4">
         <v>43876</v>
@@ -3499,7 +3499,7 @@
         <v>43871</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G52" s="11">
         <v>1</v>
@@ -3507,23 +3507,23 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4">
         <v>43873</v>
       </c>
       <c r="D53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="0"/>
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G53" s="11">
         <v>0</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" s="4">
         <v>43878</v>
@@ -3547,7 +3547,7 @@
         <v>43881</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>

--- a/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
+++ b/Rachel Barrios 9959-18-649/Cronograma planilla.xlsx
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,6 +384,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,11 +1233,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-749731616"/>
-        <c:axId val="-749731072"/>
+        <c:axId val="627575152"/>
+        <c:axId val="627577872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-749731616"/>
+        <c:axId val="627575152"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1277,7 +1280,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749731072"/>
+        <c:crossAx val="627577872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-749731072"/>
+        <c:axId val="627577872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43886"/>
@@ -1352,7 +1355,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749731616"/>
+        <c:crossAx val="627575152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2377,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2518,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2686,7 +2689,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2758,7 +2761,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2785,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,7 +2833,7 @@
         <v>68</v>
       </c>
       <c r="G24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2854,7 +2857,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,7 +2929,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2949,8 +2952,8 @@
       <c r="F29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
+      <c r="G29" s="19">
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,7 +3597,7 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
